--- a/pred_ohlcv/54_21/2019-10-20 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 PST ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-880837.9797000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-899191.2807000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-899175.0844000002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-896642.8879000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-896642.8879000002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-833674.4841000001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-843087.8667000001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-842787.8667000001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-842566.7577000001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-842647.4345000001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-841910.2095000001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-840577.2095000001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-798754.8235000001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-791333.0664858575</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-787345.4620858575</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-792901.5479858575</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-683883.9036</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-695109.3472213591</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-20 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 PST ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-880837.9797000001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-899191.2807000001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-899175.0844000002</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-896642.8879000002</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-833674.4841000001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-843087.8667000001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-842787.8667000001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-842566.7577000001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-842647.4345000001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-841910.2095000001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-840577.2095000001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-798754.8235000001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-791333.0664858575</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-787345.4620858575</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-792901.5479858575</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-683800.6636</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-683883.9036</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-695109.3472213591</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
